--- a/Products.xlsx
+++ b/Products.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja2!$B$12:$B$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$B$12:$B$109</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,657 +24,637 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
   <si>
-    <t xml:space="preserve">Price list LUMON 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Components belonging to Lumon Balcony Glazing according to Agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUOMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGLISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">euro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yks. /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">packing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläsarana O L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Hinge right, L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+   x 6,35€/kpl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläsarana V L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Hinge left, L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaohjain tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Rail Guide, Dark Grey, L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alasarana L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Hinge, L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alalähtösarana L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Start Hinge L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitsausmutteri M6 A4 DIN928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weld Nut M6 A4 DIN928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan pt 6/8mm V tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead End Plug for 6 &amp; 8mm, Dark Grey, Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan pt 6/8mm O tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead End Plug for 6 &amp; 8mm, Dark Grey, Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan pt 10mm V tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead End Plug for 10mm, Dark Grey, Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan pt 10mm O tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead End Plug for 10mm, Dark Grey, Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uraruuvi (6/8mm) M4x12 tx20 A2 DIN965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screw M4x12  tx20 A2 DIN965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uraruuvi (10mm)M4x12 tx20 A2 DIN965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screw M4x14 tx20 A2 DIN965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutteri M4 A2  DIN562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nut  M4 A2 DIN562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan holkki 10/6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazin Sleeve 10/6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan holkki 10/8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazin Sleeve 10/8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilistan holkki 10/10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazin Sleeve 10/10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivupussi O tummanharmaa *metalli*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Bag, Dark Grey, Right *metal*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivupussi  V tummanharmaa *metalli*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Bag, Dark Grey, Left *metal*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivupussi V kork.lasi L5 th *metalli*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Pane Item Bag Left dark grey L5 *metal*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivupussi O kork.lasi L5 th *metalli*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Pane Item Bag Right dark grey L5 *metal*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50220117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivupussi V kork.lasi L5th *keskikahva*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Pane Item Bag Left dark grey L5 *middle handle*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50220118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sivupussi O kork.lasi L5th *keskikahva*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Pane Item Bag Right dark grey L5 *middle handle*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Säätöprofiiin peitekilpi tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telescopic Profile Cover Plate, Dark Grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alapesä-1 kp L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber-1 L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alapesä-6 kp L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber-6 L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alapesä-9 kp L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber-9 L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläpesä-1 kp L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper chamber-1 L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläpesä-6 kp L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper chamber-6 L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläpesä-9 kp L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper chamber-9 L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Säätöprofiilin kiinnitysosat L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telescopic Profiles Hardware L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laipallisen säätöprofiilin kiinnitysosa pss L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware bag for Telescopic profile with flange, plastic bag L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivedin kp 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass Pane Knob 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivedin kp 8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass Pane Knob 8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivedin kp 10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass Pane Knob 10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivedin viistetty 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass Pane Knob Chamfered 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivedin viistetty 8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass Pane Knob Chamfered 8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivedin viistetty 10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glass Pane Knob Chamfered 10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salpalaitteen lukko L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock for latch L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vesipellin tiivi. L-malli t.harm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal for an External dark Grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alatiiviste tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom Seal dark grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Säätöprofiilin tiiviste L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telescopic Profiles Seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaprofiilin kaidetiiviste tummanharmaa L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Profiles Rail Seal dark grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinoharjatiiviste 4,8mm L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angle brush seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunatiiviste 20mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edge Seal 20mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunatiiviste 30mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edge Seal 30mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulmatiiviste 30mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corner Seal 30mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnityslista 6mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastening Bead 6mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnityslista 8mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastening Bead 8mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h-Lasivälitiiviste 6mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h- Seal between panes 6mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h-Lasivälitiiviste 8mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h- Seal between panes 8mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnityslista 10mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastening Bead 10mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h-Lasivälitiiviste 10mm kirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h- Seal between panes 10mm transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profiilin liitoskappalepussi  L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile Joint Unit plastic bag, L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläprofiilin jatkokpl.pss L5 th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Profiles Joint Unit Bag L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yläprofiili L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Profile L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Säätöprofiili L5</t>
+    <t>Price list LUMON 5</t>
+  </si>
+  <si>
+    <t>Components belonging to Lumon Balcony Glazing according to Agreement</t>
+  </si>
+  <si>
+    <t>Part no.</t>
+  </si>
+  <si>
+    <t>SUOMI</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>yks. /</t>
+  </si>
+  <si>
+    <t>packing</t>
+  </si>
+  <si>
+    <t>pcs.</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Royalty</t>
+  </si>
+  <si>
+    <t>Yläsarana O L5</t>
+  </si>
+  <si>
+    <t>Upper Hinge right, L5</t>
+  </si>
+  <si>
+    <t>+   x 6,35€/kpl</t>
+  </si>
+  <si>
+    <t>Yläsarana V L5</t>
+  </si>
+  <si>
+    <t>Upper Hinge left, L5</t>
+  </si>
+  <si>
+    <t>Alaohjain tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Lower Rail Guide, Dark Grey, L5</t>
+  </si>
+  <si>
+    <t>Alasarana L5</t>
+  </si>
+  <si>
+    <t>Lower Hinge, L5</t>
+  </si>
+  <si>
+    <t>Alalähtösarana L5</t>
+  </si>
+  <si>
+    <t>Lower Start Hinge L5</t>
+  </si>
+  <si>
+    <t>Hitsausmutteri M6 A4 DIN928</t>
+  </si>
+  <si>
+    <t>Weld Nut M6 A4 DIN928</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan pt 6/8mm V tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Glazing Bead End Plug for 6 &amp; 8mm, Dark Grey, Left</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan pt 6/8mm O tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Glazing Bead End Plug for 6 &amp; 8mm, Dark Grey, Right</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan pt 10mm V tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Glazing Bead End Plug for 10mm, Dark Grey, Left</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan pt 10mm O tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Glazing Bead End Plug for 10mm, Dark Grey, Right</t>
+  </si>
+  <si>
+    <t>Uraruuvi (6/8mm) M4x12 tx20 A2 DIN965</t>
+  </si>
+  <si>
+    <t>Screw M4x12  tx20 A2 DIN965</t>
+  </si>
+  <si>
+    <t>Uraruuvi (10mm)M4x12 tx20 A2 DIN965</t>
+  </si>
+  <si>
+    <t>Screw M4x14 tx20 A2 DIN965</t>
+  </si>
+  <si>
+    <t>Mutteri M4 A2  DIN562</t>
+  </si>
+  <si>
+    <t>Nut  M4 A2 DIN562</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan holkki 10/6mm</t>
+  </si>
+  <si>
+    <t>Glazin Sleeve 10/6mm</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan holkki 10/8mm</t>
+  </si>
+  <si>
+    <t>Glazin Sleeve 10/8mm</t>
+  </si>
+  <si>
+    <t>Ruuvilasilistan holkki 10/10mm</t>
+  </si>
+  <si>
+    <t>Glazin Sleeve 10/10mm</t>
+  </si>
+  <si>
+    <t>Sivupussi O tummanharmaa *metalli*</t>
+  </si>
+  <si>
+    <t>Item Bag, Dark Grey, Right *metal*</t>
+  </si>
+  <si>
+    <t>Sivupussi  V tummanharmaa *metalli*</t>
+  </si>
+  <si>
+    <t>Item Bag, Dark Grey, Left *metal*</t>
+  </si>
+  <si>
+    <t>Sivupussi V kork.lasi L5 th *metalli*</t>
+  </si>
+  <si>
+    <t>High Pane Item Bag Left dark grey L5 *metal*</t>
+  </si>
+  <si>
+    <t>Sivupussi O kork.lasi L5 th *metalli*</t>
+  </si>
+  <si>
+    <t>High Pane Item Bag Right dark grey L5 *metal*</t>
+  </si>
+  <si>
+    <t>50220117</t>
+  </si>
+  <si>
+    <t>Sivupussi V kork.lasi L5th *keskikahva*</t>
+  </si>
+  <si>
+    <t>High Pane Item Bag Left dark grey L5 *middle handle*</t>
+  </si>
+  <si>
+    <t>50220118</t>
+  </si>
+  <si>
+    <t>Sivupussi O kork.lasi L5th *keskikahva*</t>
+  </si>
+  <si>
+    <t>High Pane Item Bag Right dark grey L5 *middle handle*</t>
+  </si>
+  <si>
+    <t>Säätöprofiiin peitekilpi tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Telescopic Profile Cover Plate, Dark Grey</t>
+  </si>
+  <si>
+    <t>Alapesä-1 kp L5</t>
+  </si>
+  <si>
+    <t>Lower chamber-1 L5</t>
+  </si>
+  <si>
+    <t>Alapesä-6 kp L5</t>
+  </si>
+  <si>
+    <t>Lower chamber-6 L5</t>
+  </si>
+  <si>
+    <t>Alapesä-9 kp L5</t>
+  </si>
+  <si>
+    <t>Lower chamber-9 L5</t>
+  </si>
+  <si>
+    <t>Yläpesä-1 kp L5</t>
+  </si>
+  <si>
+    <t>Upper chamber-1 L5</t>
+  </si>
+  <si>
+    <t>Yläpesä-6 kp L5</t>
+  </si>
+  <si>
+    <t>Upper chamber-6 L5</t>
+  </si>
+  <si>
+    <t>Yläpesä-9 kp L5</t>
+  </si>
+  <si>
+    <t>Upper chamber-9 L5</t>
+  </si>
+  <si>
+    <t>Säätöprofiilin kiinnitysosat L5</t>
+  </si>
+  <si>
+    <t>Telescopic Profiles Hardware L5</t>
+  </si>
+  <si>
+    <t>Laipallisen säätöprofiilin kiinnitysosa pss L5</t>
+  </si>
+  <si>
+    <t>Hardware bag for Telescopic profile with flange, plastic bag L5</t>
+  </si>
+  <si>
+    <t>Lasivedin kp 6mm</t>
+  </si>
+  <si>
+    <t>Glass Pane Knob 6mm</t>
+  </si>
+  <si>
+    <t>Lasivedin kp 8mm</t>
+  </si>
+  <si>
+    <t>Glass Pane Knob 8mm</t>
+  </si>
+  <si>
+    <t>Lasivedin kp 10mm</t>
+  </si>
+  <si>
+    <t>Glass Pane Knob 10mm</t>
+  </si>
+  <si>
+    <t>Lasivedin viistetty 6mm</t>
+  </si>
+  <si>
+    <t>Glass Pane Knob Chamfered 6mm</t>
+  </si>
+  <si>
+    <t>Lasivedin viistetty 8mm</t>
+  </si>
+  <si>
+    <t>Glass Pane Knob Chamfered 8mm</t>
+  </si>
+  <si>
+    <t>Lasivedin viistetty 10mm</t>
+  </si>
+  <si>
+    <t>Glass Pane Knob Chamfered 10mm</t>
+  </si>
+  <si>
+    <t>Salpalaitteen lukko L5</t>
+  </si>
+  <si>
+    <t>Lock for latch L5</t>
+  </si>
+  <si>
+    <t>Vesipellin tiivi. L-malli t.harm</t>
+  </si>
+  <si>
+    <t>Seal for an External dark Grey</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Alatiiviste tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Bottom Seal dark grey</t>
+  </si>
+  <si>
+    <t>Säätöprofiilin tiiviste L5</t>
+  </si>
+  <si>
+    <t>Telescopic Profiles Seal</t>
+  </si>
+  <si>
+    <t>Alaprofiilin kaidetiiviste tummanharmaa L5</t>
+  </si>
+  <si>
+    <t>Lower Profiles Rail Seal dark grey</t>
+  </si>
+  <si>
+    <t>Vinoharjatiiviste 4,8mm L5</t>
+  </si>
+  <si>
+    <t>Angle brush seal</t>
+  </si>
+  <si>
+    <t>Reunatiiviste 20mm kirk</t>
+  </si>
+  <si>
+    <t>Edge Seal 20mm transparent</t>
+  </si>
+  <si>
+    <t>Reunatiiviste 30mm kirk</t>
+  </si>
+  <si>
+    <t>Edge Seal 30mm transparent</t>
+  </si>
+  <si>
+    <t>Kulmatiiviste 30mm kirk</t>
+  </si>
+  <si>
+    <t>Corner Seal 30mm transparent</t>
+  </si>
+  <si>
+    <t>Kiinnityslista 6mm kirk</t>
+  </si>
+  <si>
+    <t>Fastening Bead 6mm transparent</t>
+  </si>
+  <si>
+    <t>Kiinnityslista 8mm kirk</t>
+  </si>
+  <si>
+    <t>Fastening Bead 8mm transparent</t>
+  </si>
+  <si>
+    <t>h-Lasivälitiiviste 6mm kirk</t>
+  </si>
+  <si>
+    <t>h- Seal between panes 6mm transparent</t>
+  </si>
+  <si>
+    <t>h-Lasivälitiiviste 8mm kirk</t>
+  </si>
+  <si>
+    <t>h- Seal between panes 8mm transparent</t>
+  </si>
+  <si>
+    <t>Kiinnityslista 10mm kirk</t>
+  </si>
+  <si>
+    <t>Fastening Bead 10mm transparent</t>
+  </si>
+  <si>
+    <t>h-Lasivälitiiviste 10mm kirk</t>
+  </si>
+  <si>
+    <t>h- Seal between panes 10mm transparent</t>
+  </si>
+  <si>
+    <t>Profiilin liitoskappalepussi  L5</t>
+  </si>
+  <si>
+    <t>Profile Joint Unit plastic bag, L5</t>
+  </si>
+  <si>
+    <t>Yläprofiilin jatkokpl.pss L5 th</t>
+  </si>
+  <si>
+    <t>Upper Profiles Joint Unit Bag L5</t>
+  </si>
+  <si>
+    <t>Yläprofiili L5</t>
+  </si>
+  <si>
+    <t>Upper Profile L5</t>
+  </si>
+  <si>
+    <t>Säätöprofiili L5</t>
   </si>
   <si>
     <t xml:space="preserve">Telescopic Profile L5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Säätöprofiili laipallinen L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telescopic Profile with Flange L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Säätöprofiili korkea L5</t>
+    <t>Säätöprofiili laipallinen L5</t>
+  </si>
+  <si>
+    <t>Telescopic Profile with Flange L5</t>
+  </si>
+  <si>
+    <t>Säätöprofiili korkea L5</t>
   </si>
   <si>
     <t xml:space="preserve">Telescopic Profile High L5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alaprofiili L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Profile L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaprofiili lipallinen L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Profile with Eyeshade L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilista 6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead 6 mm L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilista 6mm kansi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead 6 mm L5, Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilista 8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead 8 mm L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50220071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilista 10mm L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead 10 mm L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruuvilasilista 8/10 kansi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glazing Bead 8/10 mm L5 Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profiilin päätylappupussi (laipaton sprof.) tharmaa pss L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile endcap bag for telescopic profile, dark grey L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profiilin päätylappupussi (laipallinen sprof.) tharmaa pss L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile endcap bag for telescopic profile with flange, dark grey L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profiilin päätytulppa pss (korkea sprof) th L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile endcap bag (higher telescpopic profile), dark grey L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper profile joint units L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profile joint unit L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikekulma 50x60 th L5/L6PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mounting Bracket, dark grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikekulma 50x60 vh L5/L6PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mounting Bracket, light grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikekulma 50x90 th L5/L6PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikekulma 50x90 vh L5/L6PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikeluisti kp vh L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bracket Slide assembly lg L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikeluisti kp th L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bracket Slide assembly dg L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikekulman peitetulppa vh L5/L6PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bracket cover, light gray L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikekulman peitetulppa th L5/L6PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bracket cover, dark gray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiinnikeruuvipussi 1kpl L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastener Screw Bag 1pc L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vesipellin kiinnitysruuvipussi L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screws for Water Sill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEINÄPROFIILI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSION PROFILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEINÄPROFIILIN KANSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSION PROFILE COVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEINÄPROFIILIN TIIVISTE TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSION PROFILE SEAL, GARK GREY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukkorunko kp oik L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock body Right L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukkorunko kp vas L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock body Left L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painike kaksipuolinen kp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handle two sided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painike yksipuolinen kp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handle one sided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasivastepussi kp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Keeper, Glazing side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaijerikeskiö kokoonpano vasen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wire center left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaijerikeskiö kokoonpano oikea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wire center right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukon seinävaste kp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Keeper, wall side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painikkeen törmäyskumit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubber stopper for handle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukon etukansi oikea L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Front cover Plate Right L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukon etukansi vasen L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Front cover Plate Left L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keskikahvan salvat L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latches for middle handle L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukkosylinteri 2-puoleinen 1kpl L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Cylinder 2-sided 1pc L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukkosylinteti vääntönupilla 1kpl L5/L6/L6T/L7T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock cylinder with knob 1pc L5/L6/L6T/L7T</t>
+    <t>Alaprofiili L5</t>
+  </si>
+  <si>
+    <t>Lower Profile L5</t>
+  </si>
+  <si>
+    <t>Alaprofiili lipallinen L5</t>
+  </si>
+  <si>
+    <t>Lower Profile with Eyeshade L5</t>
+  </si>
+  <si>
+    <t>Ruuvilasilista 6mm</t>
+  </si>
+  <si>
+    <t>Glazing Bead 6 mm L5</t>
+  </si>
+  <si>
+    <t>Ruuvilasilista 6mm kansi</t>
+  </si>
+  <si>
+    <t>Glazing Bead 6 mm L5, Cover</t>
+  </si>
+  <si>
+    <t>Ruuvilasilista 8mm</t>
+  </si>
+  <si>
+    <t>Glazing Bead 8 mm L5</t>
+  </si>
+  <si>
+    <t>50220071</t>
+  </si>
+  <si>
+    <t>Ruuvilasilista 10mm L5</t>
+  </si>
+  <si>
+    <t>Glazing Bead 10 mm L5</t>
+  </si>
+  <si>
+    <t>Ruuvilasilista 8/10 kansi</t>
+  </si>
+  <si>
+    <t>Glazing Bead 8/10 mm L5 Cover</t>
+  </si>
+  <si>
+    <t>Profiilin päätylappupussi (laipaton sprof.) tharmaa pss L5</t>
+  </si>
+  <si>
+    <t>Profile endcap bag for telescopic profile, dark grey L5</t>
+  </si>
+  <si>
+    <t>Profiilin päätylappupussi (laipallinen sprof.) tharmaa pss L5</t>
+  </si>
+  <si>
+    <t>Profile endcap bag for telescopic profile with flange, dark grey L5</t>
+  </si>
+  <si>
+    <t>Profiilin päätytulppa pss (korkea sprof) th L5</t>
+  </si>
+  <si>
+    <t>Profile endcap bag (higher telescpopic profile), dark grey L5</t>
+  </si>
+  <si>
+    <t>Upper profile joint units L5</t>
+  </si>
+  <si>
+    <t>Profile joint unit L5</t>
+  </si>
+  <si>
+    <t>Kiinnikekulma 50x60 th L5/L6PL</t>
+  </si>
+  <si>
+    <t>Lower Mounting Bracket, dark grey</t>
+  </si>
+  <si>
+    <t>Kiinnikekulma 50x60 vh L5/L6PL</t>
+  </si>
+  <si>
+    <t>Lower Mounting Bracket, light grey</t>
+  </si>
+  <si>
+    <t>Kiinnikekulma 50x90 th L5/L6PL</t>
+  </si>
+  <si>
+    <t>Kiinnikekulma 50x90 vh L5/L6PL</t>
+  </si>
+  <si>
+    <t>Kiinnikeluisti kp vh L5</t>
+  </si>
+  <si>
+    <t>Bracket Slide assembly lg L5</t>
+  </si>
+  <si>
+    <t>Kiinnikeluisti kp th L5</t>
+  </si>
+  <si>
+    <t>Bracket Slide assembly dg L5</t>
+  </si>
+  <si>
+    <t>Kiinnikekulman peitetulppa vh L5/L6PL</t>
+  </si>
+  <si>
+    <t>Bracket cover, light gray L5</t>
+  </si>
+  <si>
+    <t>Kiinnikekulman peitetulppa th L5/L6PL</t>
+  </si>
+  <si>
+    <t>Bracket cover, dark gray</t>
+  </si>
+  <si>
+    <t>Kiinnikeruuvipussi 1kpl L5</t>
+  </si>
+  <si>
+    <t>Fastener Screw Bag 1pc L5</t>
+  </si>
+  <si>
+    <t>Vesipellin kiinnitysruuvipussi L5</t>
+  </si>
+  <si>
+    <t>Screws for Water Sill</t>
+  </si>
+  <si>
+    <t>SEINÄPROFIILI</t>
+  </si>
+  <si>
+    <t>EXTENSION PROFILE</t>
+  </si>
+  <si>
+    <t>SEINÄPROFIILIN KANSI</t>
+  </si>
+  <si>
+    <t>EXTENSION PROFILE COVER</t>
+  </si>
+  <si>
+    <t>SEINÄPROFIILIN TIIVISTE TH</t>
+  </si>
+  <si>
+    <t>EXTENSION PROFILE SEAL, GARK GREY</t>
+  </si>
+  <si>
+    <t>Lukkorunko kp oik L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lock body Right L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lukkorunko kp vas L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lock body Left L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Painike kaksipuolinen kp</t>
+  </si>
+  <si>
+    <t>Handle two sided</t>
+  </si>
+  <si>
+    <t>Painike yksipuolinen kp</t>
+  </si>
+  <si>
+    <t>Handle one sided</t>
+  </si>
+  <si>
+    <t>Lasivastepussi kp</t>
+  </si>
+  <si>
+    <t>Lock Keeper, Glazing side</t>
+  </si>
+  <si>
+    <t>Vaijerikeskiö kokoonpano vasen</t>
+  </si>
+  <si>
+    <t>Wire center left</t>
+  </si>
+  <si>
+    <t>Vaijerikeskiö kokoonpano oikea</t>
+  </si>
+  <si>
+    <t>Wire center right</t>
+  </si>
+  <si>
+    <t>Lukon seinävaste kp</t>
+  </si>
+  <si>
+    <t>Lock Keeper, wall side</t>
+  </si>
+  <si>
+    <t>Painikkeen törmäyskumit</t>
+  </si>
+  <si>
+    <t>Rubber stopper for handle</t>
+  </si>
+  <si>
+    <t>Lukon etukansi oikea L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lock Front cover Plate Right L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lukon etukansi vasen L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lock Front cover Plate Left L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Keskikahvan salvat L5</t>
+  </si>
+  <si>
+    <t>Latches for middle handle L5</t>
+  </si>
+  <si>
+    <t>Lukkosylinteri 2-puoleinen 1kpl L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lock Cylinder 2-sided 1pc L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lukkosylinteti vääntönupilla 1kpl L5/L6/L6T/L7T</t>
+  </si>
+  <si>
+    <t>Lock cylinder with knob 1pc L5/L6/L6T/L7T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -691,21 +670,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -718,8 +697,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -760,445 +739,485 @@
     </fill>
   </fills>
   <borders count="22">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1214,11 +1233,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image00.png" descr=""/>
+        <xdr:cNvPr id="2" name="image00.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1239,32 +1258,312 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="26" min="9" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.5816326530612"/>
+    <col min="1" max="1" width="8.140625"/>
+    <col min="2" max="2" width="17.140625"/>
+    <col min="3" max="3" width="45.7109375"/>
+    <col min="4" max="4" width="50"/>
+    <col min="5" max="5" width="6.5703125"/>
+    <col min="6" max="6" width="6.28515625"/>
+    <col min="7" max="7" width="7"/>
+    <col min="8" max="8" width="15.28515625"/>
+    <col min="9" max="26" width="10.7109375"/>
+    <col min="27" max="1025" width="14.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1292,7 +1591,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1320,7 +1619,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1348,7 +1647,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1376,7 +1675,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1404,7 +1703,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="20.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
@@ -1432,7 +1731,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="18" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="9"/>
       <c r="C7" s="7" t="s">
@@ -1462,7 +1761,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="C8" s="1"/>
@@ -1490,9 +1789,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="11">
         <v>42370</v>
       </c>
       <c r="C9" s="11"/>
@@ -1520,7 +1819,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="13" t="s">
         <v>1</v>
@@ -1550,7 +1849,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -1590,7 +1889,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
@@ -1624,9 +1923,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="28" t="n">
+      <c r="B13" s="28">
         <v>50220020</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -1635,13 +1934,13 @@
       <c r="D13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="30" t="n">
+      <c r="E13" s="30">
         <v>3.52</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="32">
         <v>20</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -1666,9 +1965,9 @@
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="35" t="n">
+      <c r="B14" s="35">
         <v>50220021</v>
       </c>
       <c r="C14" s="36" t="s">
@@ -1677,13 +1976,13 @@
       <c r="D14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="37" t="n">
+      <c r="E14" s="37">
         <v>3.52</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="39" t="n">
+      <c r="G14" s="39">
         <v>20</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -1708,9 +2007,9 @@
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="35" t="n">
+      <c r="B15" s="35">
         <v>50220022</v>
       </c>
       <c r="C15" s="36" t="s">
@@ -1719,13 +2018,13 @@
       <c r="D15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="37" t="n">
+      <c r="E15" s="37">
         <v>1.19</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="39" t="n">
+      <c r="G15" s="39">
         <v>20</v>
       </c>
       <c r="H15" s="2"/>
@@ -1748,9 +2047,9 @@
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="35">
         <v>50220024</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -1759,13 +2058,13 @@
       <c r="D16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="37">
         <v>1</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="41" t="n">
+      <c r="G16" s="41">
         <v>20</v>
       </c>
       <c r="H16" s="2"/>
@@ -1788,9 +2087,9 @@
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="12.75" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="35" t="n">
+      <c r="B17" s="35">
         <v>50220026</v>
       </c>
       <c r="C17" s="36" t="s">
@@ -1799,13 +2098,13 @@
       <c r="D17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="37" t="n">
+      <c r="E17" s="37">
         <v>1</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="41" t="n">
+      <c r="G17" s="41">
         <v>10</v>
       </c>
       <c r="H17" s="2"/>
@@ -1828,9 +2127,9 @@
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="35" t="n">
+      <c r="B18" s="35">
         <v>68061310</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -1839,13 +2138,13 @@
       <c r="D18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="37">
         <v>0.1</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="41" t="n">
+      <c r="G18" s="41">
         <v>500</v>
       </c>
       <c r="H18" s="2"/>
@@ -1868,9 +2167,9 @@
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="42" t="n">
+      <c r="B19" s="42">
         <v>53220068</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -1879,13 +2178,13 @@
       <c r="D19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="37">
         <v>0.31</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="41" t="n">
+      <c r="G19" s="41">
         <v>50</v>
       </c>
       <c r="H19" s="2"/>
@@ -1908,9 +2207,9 @@
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="42" t="n">
+      <c r="B20" s="42">
         <v>53220069</v>
       </c>
       <c r="C20" s="36" t="s">
@@ -1919,13 +2218,13 @@
       <c r="D20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="37" t="n">
+      <c r="E20" s="37">
         <v>0.31</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="41" t="n">
+      <c r="G20" s="41">
         <v>50</v>
       </c>
       <c r="H20" s="2"/>
@@ -1948,9 +2247,9 @@
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="42" t="n">
+      <c r="B21" s="42">
         <v>53220103</v>
       </c>
       <c r="C21" s="36" t="s">
@@ -1959,13 +2258,13 @@
       <c r="D21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="37" t="n">
+      <c r="E21" s="37">
         <v>0.37</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="41" t="n">
+      <c r="G21" s="41">
         <v>50</v>
       </c>
       <c r="H21" s="2"/>
@@ -1988,9 +2287,9 @@
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="42" t="n">
+      <c r="B22" s="42">
         <v>53220104</v>
       </c>
       <c r="C22" s="36" t="s">
@@ -1999,13 +2298,13 @@
       <c r="D22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="37" t="n">
+      <c r="E22" s="37">
         <v>0.37</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="41" t="n">
+      <c r="G22" s="41">
         <v>50</v>
       </c>
       <c r="H22" s="2"/>
@@ -2028,9 +2327,9 @@
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="42" t="n">
+      <c r="B23" s="42">
         <v>68980502</v>
       </c>
       <c r="C23" s="36" t="s">
@@ -2039,13 +2338,13 @@
       <c r="D23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="37" t="n">
-        <v>0.07</v>
+      <c r="E23" s="37">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="41" t="n">
+      <c r="G23" s="41">
         <v>500</v>
       </c>
       <c r="H23" s="2"/>
@@ -2068,9 +2367,9 @@
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="42" t="n">
+      <c r="B24" s="42">
         <v>68980501</v>
       </c>
       <c r="C24" s="36" t="s">
@@ -2079,13 +2378,13 @@
       <c r="D24" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="37" t="n">
-        <v>0.07</v>
+      <c r="E24" s="37">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="41" t="n">
+      <c r="G24" s="41">
         <v>500</v>
       </c>
       <c r="H24" s="2"/>
@@ -2108,9 +2407,9 @@
       <c r="Y24" s="34"/>
       <c r="Z24" s="34"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="42" t="n">
+      <c r="B25" s="42">
         <v>68980503</v>
       </c>
       <c r="C25" s="36" t="s">
@@ -2119,13 +2418,13 @@
       <c r="D25" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="37" t="n">
+      <c r="E25" s="37">
         <v>0.1</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="41" t="n">
+      <c r="G25" s="41">
         <v>500</v>
       </c>
       <c r="H25" s="2"/>
@@ -2148,9 +2447,9 @@
       <c r="Y25" s="34"/>
       <c r="Z25" s="34"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="42" t="n">
+      <c r="B26" s="42">
         <v>53220121</v>
       </c>
       <c r="C26" s="36" t="s">
@@ -2159,13 +2458,13 @@
       <c r="D26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="37" t="n">
+      <c r="E26" s="37">
         <v>0.12</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="41" t="n">
+      <c r="G26" s="41">
         <v>0</v>
       </c>
       <c r="H26" s="2"/>
@@ -2188,9 +2487,9 @@
       <c r="Y26" s="34"/>
       <c r="Z26" s="34"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="42" t="n">
+      <c r="B27" s="42">
         <v>53220122</v>
       </c>
       <c r="C27" s="36" t="s">
@@ -2199,13 +2498,13 @@
       <c r="D27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="37" t="n">
+      <c r="E27" s="37">
         <v>0.12</v>
       </c>
       <c r="F27" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="41" t="n">
+      <c r="G27" s="41">
         <v>0</v>
       </c>
       <c r="H27" s="2"/>
@@ -2228,9 +2527,9 @@
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="42" t="n">
+      <c r="B28" s="42">
         <v>53220123</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -2239,13 +2538,13 @@
       <c r="D28" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="37" t="n">
+      <c r="E28" s="37">
         <v>0.12</v>
       </c>
       <c r="F28" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="41" t="n">
+      <c r="G28" s="41">
         <v>0</v>
       </c>
       <c r="H28" s="2"/>
@@ -2268,9 +2567,9 @@
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="42" t="n">
+      <c r="B29" s="42">
         <v>50220037</v>
       </c>
       <c r="C29" s="36" t="s">
@@ -2279,13 +2578,13 @@
       <c r="D29" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="37" t="n">
+      <c r="E29" s="37">
         <v>35.58</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="41" t="n">
+      <c r="G29" s="41">
         <v>2</v>
       </c>
       <c r="H29" s="2"/>
@@ -2308,9 +2607,9 @@
       <c r="Y29" s="34"/>
       <c r="Z29" s="34"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="42" t="n">
+      <c r="B30" s="42">
         <v>50220036</v>
       </c>
       <c r="C30" s="36" t="s">
@@ -2319,13 +2618,13 @@
       <c r="D30" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="37" t="n">
+      <c r="E30" s="37">
         <v>35.58</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="41" t="n">
+      <c r="G30" s="41">
         <v>2</v>
       </c>
       <c r="H30" s="2"/>
@@ -2348,9 +2647,9 @@
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="12.75" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="42" t="n">
+      <c r="B31" s="42">
         <v>50220115</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -2359,13 +2658,13 @@
       <c r="D31" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="37" t="n">
+      <c r="E31" s="37">
         <v>69.72</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="39" t="n">
+      <c r="G31" s="39">
         <v>2</v>
       </c>
       <c r="H31" s="2"/>
@@ -2388,9 +2687,9 @@
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="42" t="n">
+      <c r="B32" s="42">
         <v>50220116</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -2399,13 +2698,13 @@
       <c r="D32" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="37" t="n">
+      <c r="E32" s="37">
         <v>69.72</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="39" t="n">
+      <c r="G32" s="39">
         <v>2</v>
       </c>
       <c r="H32" s="2"/>
@@ -2428,7 +2727,7 @@
       <c r="Y32" s="34"/>
       <c r="Z32" s="34"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="12.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="42" t="s">
         <v>52</v>
@@ -2439,13 +2738,13 @@
       <c r="D33" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="37" t="n">
+      <c r="E33" s="37">
         <v>16.86</v>
       </c>
       <c r="F33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="39" t="n">
+      <c r="G33" s="39">
         <v>0</v>
       </c>
       <c r="H33" s="2"/>
@@ -2468,7 +2767,7 @@
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="12.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="42" t="s">
         <v>55</v>
@@ -2479,13 +2778,13 @@
       <c r="D34" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="37" t="n">
+      <c r="E34" s="37">
         <v>16.86</v>
       </c>
       <c r="F34" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="39" t="n">
+      <c r="G34" s="39">
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
@@ -2508,9 +2807,9 @@
       <c r="Y34" s="34"/>
       <c r="Z34" s="34"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="12.75" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="43" t="n">
+      <c r="B35" s="43">
         <v>53220037</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -2519,13 +2818,13 @@
       <c r="D35" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="37" t="n">
+      <c r="E35" s="37">
         <v>0.63</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="39" t="n">
+      <c r="G35" s="39">
         <v>10</v>
       </c>
       <c r="H35" s="2"/>
@@ -2548,9 +2847,9 @@
       <c r="Y35" s="34"/>
       <c r="Z35" s="34"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="12.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="35" t="n">
+      <c r="B36" s="35">
         <v>50220046</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -2559,13 +2858,13 @@
       <c r="D36" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="37" t="n">
+      <c r="E36" s="37">
         <v>0.84</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="39" t="n">
+      <c r="G36" s="39">
         <v>10</v>
       </c>
       <c r="H36" s="2"/>
@@ -2588,9 +2887,9 @@
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="12.75" customHeight="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="35" t="n">
+      <c r="B37" s="35">
         <v>50220047</v>
       </c>
       <c r="C37" s="36" t="s">
@@ -2599,13 +2898,13 @@
       <c r="D37" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="37" t="n">
+      <c r="E37" s="37">
         <v>3.64</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="39" t="n">
+      <c r="G37" s="39">
         <v>10</v>
       </c>
       <c r="H37" s="2"/>
@@ -2628,9 +2927,9 @@
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="12.75" customHeight="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="35" t="n">
+      <c r="B38" s="35">
         <v>50220048</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -2639,13 +2938,13 @@
       <c r="D38" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="37" t="n">
-        <v>4.77</v>
+      <c r="E38" s="37">
+        <v>4.7699999999999996</v>
       </c>
       <c r="F38" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="39" t="n">
+      <c r="G38" s="39">
         <v>10</v>
       </c>
       <c r="H38" s="2"/>
@@ -2668,9 +2967,9 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="12.75" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="35" t="n">
+      <c r="B39" s="35">
         <v>50220049</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -2679,13 +2978,13 @@
       <c r="D39" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="37" t="n">
+      <c r="E39" s="37">
         <v>0.69</v>
       </c>
       <c r="F39" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="39" t="n">
+      <c r="G39" s="39">
         <v>10</v>
       </c>
       <c r="H39" s="2"/>
@@ -2708,9 +3007,9 @@
       <c r="Y39" s="34"/>
       <c r="Z39" s="34"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" ht="12.75" customHeight="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="35" t="n">
+      <c r="B40" s="35">
         <v>50220050</v>
       </c>
       <c r="C40" s="36" t="s">
@@ -2719,13 +3018,13 @@
       <c r="D40" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="37" t="n">
-        <v>2.26</v>
+      <c r="E40" s="37">
+        <v>2.2599999999999998</v>
       </c>
       <c r="F40" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="39" t="n">
+      <c r="G40" s="39">
         <v>10</v>
       </c>
       <c r="H40" s="2"/>
@@ -2748,9 +3047,9 @@
       <c r="Y40" s="34"/>
       <c r="Z40" s="34"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" ht="12.75" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="35" t="n">
+      <c r="B41" s="35">
         <v>50220051</v>
       </c>
       <c r="C41" s="36" t="s">
@@ -2759,13 +3058,13 @@
       <c r="D41" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="37" t="n">
+      <c r="E41" s="37">
         <v>3.07</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="39" t="n">
+      <c r="G41" s="39">
         <v>10</v>
       </c>
       <c r="H41" s="2"/>
@@ -2788,9 +3087,9 @@
       <c r="Y41" s="34"/>
       <c r="Z41" s="34"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:26" ht="12.75" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="35" t="n">
+      <c r="B42" s="35">
         <v>50220038</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -2799,13 +3098,13 @@
       <c r="D42" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="37" t="n">
-        <v>2.01</v>
+      <c r="E42" s="37">
+        <v>2.0099999999999998</v>
       </c>
       <c r="F42" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="39" t="n">
+      <c r="G42" s="39">
         <v>20</v>
       </c>
       <c r="H42" s="2"/>
@@ -2828,9 +3127,9 @@
       <c r="Y42" s="34"/>
       <c r="Z42" s="34"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:26" ht="12.75" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="35" t="n">
+      <c r="B43" s="35">
         <v>50220057</v>
       </c>
       <c r="C43" s="36" t="s">
@@ -2839,13 +3138,13 @@
       <c r="D43" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="37" t="n">
+      <c r="E43" s="37">
         <v>1.66</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="39" t="n">
+      <c r="G43" s="39">
         <v>20</v>
       </c>
       <c r="H43" s="2"/>
@@ -2868,9 +3167,9 @@
       <c r="Y43" s="34"/>
       <c r="Z43" s="34"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:26" ht="12.75" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="35" t="n">
+      <c r="B44" s="35">
         <v>50200300</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -2879,13 +3178,13 @@
       <c r="D44" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="37" t="n">
+      <c r="E44" s="37">
         <v>6.43</v>
       </c>
       <c r="F44" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="39" t="n">
+      <c r="G44" s="39">
         <v>1</v>
       </c>
       <c r="H44" s="2"/>
@@ -2908,9 +3207,9 @@
       <c r="Y44" s="34"/>
       <c r="Z44" s="34"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:26" ht="12.75" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="35" t="n">
+      <c r="B45" s="35">
         <v>50200301</v>
       </c>
       <c r="C45" s="36" t="s">
@@ -2919,13 +3218,13 @@
       <c r="D45" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="37" t="n">
+      <c r="E45" s="37">
         <v>6.43</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="39" t="n">
+      <c r="G45" s="39">
         <v>1</v>
       </c>
       <c r="H45" s="2"/>
@@ -2948,9 +3247,9 @@
       <c r="Y45" s="34"/>
       <c r="Z45" s="34"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:26" ht="12.75" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="35" t="n">
+      <c r="B46" s="35">
         <v>50200302</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -2959,13 +3258,13 @@
       <c r="D46" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="37" t="n">
+      <c r="E46" s="37">
         <v>6.43</v>
       </c>
       <c r="F46" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="39" t="n">
+      <c r="G46" s="39">
         <v>1</v>
       </c>
       <c r="H46" s="2"/>
@@ -2988,9 +3287,9 @@
       <c r="Y46" s="34"/>
       <c r="Z46" s="34"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:26" ht="12.75" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="35" t="n">
+      <c r="B47" s="35">
         <v>51200084</v>
       </c>
       <c r="C47" s="36" t="s">
@@ -2999,13 +3298,13 @@
       <c r="D47" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="37" t="n">
+      <c r="E47" s="37">
         <v>5.93</v>
       </c>
       <c r="F47" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="39" t="n">
+      <c r="G47" s="39">
         <v>1</v>
       </c>
       <c r="H47" s="2"/>
@@ -3028,9 +3327,9 @@
       <c r="Y47" s="34"/>
       <c r="Z47" s="34"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:26" ht="12.75" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="35" t="n">
+      <c r="B48" s="35">
         <v>51200085</v>
       </c>
       <c r="C48" s="36" t="s">
@@ -3039,13 +3338,13 @@
       <c r="D48" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="37" t="n">
+      <c r="E48" s="37">
         <v>5.93</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="39" t="n">
+      <c r="G48" s="39">
         <v>1</v>
       </c>
       <c r="H48" s="2"/>
@@ -3068,9 +3367,9 @@
       <c r="Y48" s="34"/>
       <c r="Z48" s="34"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="35" t="n">
+      <c r="B49" s="35">
         <v>51200086</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -3079,13 +3378,13 @@
       <c r="D49" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="37" t="n">
+      <c r="E49" s="37">
         <v>5.93</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="39" t="n">
+      <c r="G49" s="39">
         <v>1</v>
       </c>
       <c r="H49" s="2"/>
@@ -3108,9 +3407,9 @@
       <c r="Y49" s="34"/>
       <c r="Z49" s="34"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="35" t="n">
+      <c r="B50" s="35">
         <v>50220039</v>
       </c>
       <c r="C50" s="36" t="s">
@@ -3119,13 +3418,13 @@
       <c r="D50" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="37" t="n">
+      <c r="E50" s="37">
         <v>12.18</v>
       </c>
       <c r="F50" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="39" t="n">
+      <c r="G50" s="39">
         <v>2</v>
       </c>
       <c r="H50" s="2"/>
@@ -3148,9 +3447,9 @@
       <c r="Y50" s="34"/>
       <c r="Z50" s="34"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:26" ht="12.75" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="35" t="n">
+      <c r="B51" s="35">
         <v>54144211</v>
       </c>
       <c r="C51" s="36" t="s">
@@ -3159,13 +3458,13 @@
       <c r="D51" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="37" t="n">
+      <c r="E51" s="37">
         <v>0.53</v>
       </c>
       <c r="F51" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G51" s="41" t="n">
+      <c r="G51" s="41">
         <v>250</v>
       </c>
       <c r="H51" s="2"/>
@@ -3188,9 +3487,9 @@
       <c r="Y51" s="34"/>
       <c r="Z51" s="34"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:26" ht="12.75" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="35" t="n">
+      <c r="B52" s="35">
         <v>54220002</v>
       </c>
       <c r="C52" s="36" t="s">
@@ -3199,13 +3498,13 @@
       <c r="D52" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="37" t="n">
+      <c r="E52" s="37">
         <v>1.19</v>
       </c>
       <c r="F52" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G52" s="41" t="n">
+      <c r="G52" s="41">
         <v>250</v>
       </c>
       <c r="H52" s="2"/>
@@ -3228,9 +3527,9 @@
       <c r="Y52" s="34"/>
       <c r="Z52" s="34"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:26" ht="12.75" customHeight="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="35" t="n">
+      <c r="B53" s="35">
         <v>54220003</v>
       </c>
       <c r="C53" s="36" t="s">
@@ -3239,13 +3538,13 @@
       <c r="D53" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="37" t="n">
+      <c r="E53" s="37">
         <v>1.79</v>
       </c>
       <c r="F53" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G53" s="41" t="n">
+      <c r="G53" s="41">
         <v>250</v>
       </c>
       <c r="H53" s="2"/>
@@ -3268,9 +3567,9 @@
       <c r="Y53" s="34"/>
       <c r="Z53" s="34"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="35" t="n">
+      <c r="B54" s="35">
         <v>54220005</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -3279,13 +3578,13 @@
       <c r="D54" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="37" t="n">
+      <c r="E54" s="37">
         <v>0.65</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="41" t="n">
+      <c r="G54" s="41">
         <v>200</v>
       </c>
       <c r="H54" s="2"/>
@@ -3308,9 +3607,9 @@
       <c r="Y54" s="34"/>
       <c r="Z54" s="34"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="35" t="n">
+      <c r="B55" s="35">
         <v>54220006</v>
       </c>
       <c r="C55" s="36" t="s">
@@ -3319,13 +3618,13 @@
       <c r="D55" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="37" t="n">
+      <c r="E55" s="37">
         <v>0.72</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="41" t="n">
+      <c r="G55" s="41">
         <v>400</v>
       </c>
       <c r="H55" s="2"/>
@@ -3348,9 +3647,9 @@
       <c r="Y55" s="34"/>
       <c r="Z55" s="34"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="35" t="n">
+      <c r="B56" s="35">
         <v>54042014</v>
       </c>
       <c r="C56" s="36" t="s">
@@ -3359,13 +3658,13 @@
       <c r="D56" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="37" t="n">
+      <c r="E56" s="37">
         <v>2.66</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="39" t="n">
+      <c r="G56" s="39">
         <v>50</v>
       </c>
       <c r="H56" s="2"/>
@@ -3388,9 +3687,9 @@
       <c r="Y56" s="34"/>
       <c r="Z56" s="34"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="35" t="n">
+      <c r="B57" s="35">
         <v>54042024</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -3399,13 +3698,13 @@
       <c r="D57" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="37" t="n">
+      <c r="E57" s="37">
         <v>3.2</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="39" t="n">
+      <c r="G57" s="39">
         <v>50</v>
       </c>
       <c r="H57" s="2"/>
@@ -3428,9 +3727,9 @@
       <c r="Y57" s="34"/>
       <c r="Z57" s="34"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:26" ht="12.75" customHeight="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="35" t="n">
+      <c r="B58" s="35">
         <v>54042026</v>
       </c>
       <c r="C58" s="36" t="s">
@@ -3439,13 +3738,13 @@
       <c r="D58" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="37" t="n">
+      <c r="E58" s="37">
         <v>3.45</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G58" s="39" t="n">
+      <c r="G58" s="39">
         <v>50</v>
       </c>
       <c r="H58" s="2"/>
@@ -3468,9 +3767,9 @@
       <c r="Y58" s="34"/>
       <c r="Z58" s="34"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:26" ht="12.75" customHeight="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="35" t="n">
+      <c r="B59" s="35">
         <v>54043014</v>
       </c>
       <c r="C59" s="36" t="s">
@@ -3479,13 +3778,13 @@
       <c r="D59" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="37" t="n">
+      <c r="E59" s="37">
         <v>2.04</v>
       </c>
       <c r="F59" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G59" s="39" t="n">
+      <c r="G59" s="39">
         <v>275</v>
       </c>
       <c r="H59" s="2"/>
@@ -3508,9 +3807,9 @@
       <c r="Y59" s="34"/>
       <c r="Z59" s="34"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:26" ht="12.75" customHeight="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="35" t="n">
+      <c r="B60" s="35">
         <v>54043024</v>
       </c>
       <c r="C60" s="36" t="s">
@@ -3519,13 +3818,13 @@
       <c r="D60" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="37" t="n">
+      <c r="E60" s="37">
         <v>2.13</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="39" t="n">
+      <c r="G60" s="39">
         <v>275</v>
       </c>
       <c r="H60" s="2"/>
@@ -3548,9 +3847,9 @@
       <c r="Y60" s="34"/>
       <c r="Z60" s="34"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:26" ht="12.75" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="35" t="n">
+      <c r="B61" s="35">
         <v>54043034</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -3559,13 +3858,13 @@
       <c r="D61" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="37" t="n">
-        <v>2.01</v>
+      <c r="E61" s="37">
+        <v>2.0099999999999998</v>
       </c>
       <c r="F61" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="39" t="n">
+      <c r="G61" s="39">
         <v>275</v>
       </c>
       <c r="H61" s="2"/>
@@ -3588,9 +3887,9 @@
       <c r="Y61" s="34"/>
       <c r="Z61" s="34"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:26" ht="12.75" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="35" t="n">
+      <c r="B62" s="35">
         <v>54043044</v>
       </c>
       <c r="C62" s="36" t="s">
@@ -3599,13 +3898,13 @@
       <c r="D62" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="37" t="n">
+      <c r="E62" s="37">
         <v>2.13</v>
       </c>
       <c r="F62" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G62" s="39" t="n">
+      <c r="G62" s="39">
         <v>275</v>
       </c>
       <c r="H62" s="2"/>
@@ -3628,9 +3927,9 @@
       <c r="Y62" s="34"/>
       <c r="Z62" s="34"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:26" ht="12.75" customHeight="1">
       <c r="A63" s="2"/>
-      <c r="B63" s="35" t="n">
+      <c r="B63" s="35">
         <v>54043054</v>
       </c>
       <c r="C63" s="36" t="s">
@@ -3639,13 +3938,13 @@
       <c r="D63" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="37" t="n">
-        <v>2.51</v>
+      <c r="E63" s="37">
+        <v>2.5099999999999998</v>
       </c>
       <c r="F63" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G63" s="39" t="n">
+      <c r="G63" s="39">
         <v>275</v>
       </c>
       <c r="H63" s="2"/>
@@ -3668,9 +3967,9 @@
       <c r="Y63" s="34"/>
       <c r="Z63" s="34"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:26" ht="12.75" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="35" t="n">
+      <c r="B64" s="35">
         <v>54043064</v>
       </c>
       <c r="C64" s="36" t="s">
@@ -3679,13 +3978,13 @@
       <c r="D64" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="37" t="n">
+      <c r="E64" s="37">
         <v>2.16</v>
       </c>
       <c r="F64" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G64" s="39" t="n">
+      <c r="G64" s="39">
         <v>275</v>
       </c>
       <c r="H64" s="2"/>
@@ -3708,9 +4007,9 @@
       <c r="Y64" s="34"/>
       <c r="Z64" s="34"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:26" ht="12.75" customHeight="1">
       <c r="A65" s="2"/>
-      <c r="B65" s="35" t="n">
+      <c r="B65" s="35">
         <v>50220009</v>
       </c>
       <c r="C65" s="36" t="s">
@@ -3719,13 +4018,13 @@
       <c r="D65" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="37" t="n">
+      <c r="E65" s="37">
         <v>4.93</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="39" t="n">
+      <c r="G65" s="39">
         <v>10</v>
       </c>
       <c r="H65" s="2"/>
@@ -3748,9 +4047,9 @@
       <c r="Y65" s="34"/>
       <c r="Z65" s="34"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:26" ht="12.75" customHeight="1">
       <c r="A66" s="2"/>
-      <c r="B66" s="35" t="n">
+      <c r="B66" s="35">
         <v>50220070</v>
       </c>
       <c r="C66" s="36" t="s">
@@ -3759,13 +4058,13 @@
       <c r="D66" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="37" t="n">
+      <c r="E66" s="37">
         <v>1.06</v>
       </c>
       <c r="F66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="39" t="n">
+      <c r="G66" s="39">
         <v>10</v>
       </c>
       <c r="H66" s="2"/>
@@ -3788,9 +4087,9 @@
       <c r="Y66" s="34"/>
       <c r="Z66" s="34"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:26" ht="12.75" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="35" t="n">
+      <c r="B67" s="35">
         <v>11221205</v>
       </c>
       <c r="C67" s="36" t="s">
@@ -3799,13 +4098,13 @@
       <c r="D67" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="37" t="n">
+      <c r="E67" s="37">
         <v>5.75</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G67" s="39" t="n">
+      <c r="G67" s="39">
         <v>7.4</v>
       </c>
       <c r="H67" s="2"/>
@@ -3828,9 +4127,9 @@
       <c r="Y67" s="34"/>
       <c r="Z67" s="34"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:26" ht="12.75" customHeight="1">
       <c r="A68" s="2"/>
-      <c r="B68" s="35" t="n">
+      <c r="B68" s="35">
         <v>11222206</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3839,13 +4138,13 @@
       <c r="D68" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="37" t="n">
+      <c r="E68" s="37">
         <v>5.71</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G68" s="39" t="n">
+      <c r="G68" s="39">
         <v>7.4</v>
       </c>
       <c r="H68" s="2"/>
@@ -3868,9 +4167,9 @@
       <c r="Y68" s="34"/>
       <c r="Z68" s="34"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:26" ht="12.75" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="35" t="n">
+      <c r="B69" s="35">
         <v>11222207</v>
       </c>
       <c r="C69" s="36" t="s">
@@ -3879,13 +4178,13 @@
       <c r="D69" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="37" t="n">
+      <c r="E69" s="37">
         <v>12.9</v>
       </c>
       <c r="F69" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="39" t="n">
+      <c r="G69" s="39">
         <v>7.4</v>
       </c>
       <c r="H69" s="2"/>
@@ -3908,9 +4207,9 @@
       <c r="Y69" s="34"/>
       <c r="Z69" s="34"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:26" ht="12.75" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="42" t="n">
+      <c r="B70" s="42">
         <v>11222208</v>
       </c>
       <c r="C70" s="36" t="s">
@@ -3919,13 +4218,13 @@
       <c r="D70" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E70" s="37" t="n">
-        <v>10.03</v>
+      <c r="E70" s="37">
+        <v>10.029999999999999</v>
       </c>
       <c r="F70" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="39" t="n">
+      <c r="G70" s="39">
         <v>7.4</v>
       </c>
       <c r="H70" s="2"/>
@@ -3948,9 +4247,9 @@
       <c r="Y70" s="34"/>
       <c r="Z70" s="34"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:26" ht="12.75" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="35" t="n">
+      <c r="B71" s="35">
         <v>11223001</v>
       </c>
       <c r="C71" s="36" t="s">
@@ -3959,13 +4258,13 @@
       <c r="D71" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="37" t="n">
+      <c r="E71" s="37">
         <v>5.25</v>
       </c>
       <c r="F71" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G71" s="39" t="n">
+      <c r="G71" s="39">
         <v>7.4</v>
       </c>
       <c r="H71" s="2"/>
@@ -3988,9 +4287,9 @@
       <c r="Y71" s="34"/>
       <c r="Z71" s="34"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:26" ht="12.75" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="35" t="n">
+      <c r="B72" s="35">
         <v>11223002</v>
       </c>
       <c r="C72" s="36" t="s">
@@ -3999,13 +4298,13 @@
       <c r="D72" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="37" t="n">
+      <c r="E72" s="37">
         <v>5.59</v>
       </c>
       <c r="F72" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G72" s="39" t="n">
+      <c r="G72" s="39">
         <v>7.4</v>
       </c>
       <c r="H72" s="2"/>
@@ -4028,9 +4327,9 @@
       <c r="Y72" s="34"/>
       <c r="Z72" s="34"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:26" ht="12.75" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="35" t="n">
+      <c r="B73" s="35">
         <v>11225237</v>
       </c>
       <c r="C73" s="36" t="s">
@@ -4039,13 +4338,13 @@
       <c r="D73" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E73" s="37" t="n">
+      <c r="E73" s="37">
         <v>2.89</v>
       </c>
       <c r="F73" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G73" s="39" t="n">
+      <c r="G73" s="39">
         <v>6</v>
       </c>
       <c r="H73" s="2"/>
@@ -4068,9 +4367,9 @@
       <c r="Y73" s="34"/>
       <c r="Z73" s="34"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:26" ht="12.75" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="35" t="n">
+      <c r="B74" s="35">
         <v>11225239</v>
       </c>
       <c r="C74" s="36" t="s">
@@ -4079,13 +4378,13 @@
       <c r="D74" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="37" t="n">
+      <c r="E74" s="37">
         <v>0.97</v>
       </c>
       <c r="F74" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G74" s="39" t="n">
+      <c r="G74" s="39">
         <v>6</v>
       </c>
       <c r="H74" s="2"/>
@@ -4108,9 +4407,9 @@
       <c r="Y74" s="34"/>
       <c r="Z74" s="34"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:26" ht="12.75" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="35" t="n">
+      <c r="B75" s="35">
         <v>11225236</v>
       </c>
       <c r="C75" s="36" t="s">
@@ -4119,13 +4418,13 @@
       <c r="D75" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="37" t="n">
+      <c r="E75" s="37">
         <v>2.74</v>
       </c>
       <c r="F75" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G75" s="39" t="n">
+      <c r="G75" s="39">
         <v>6</v>
       </c>
       <c r="H75" s="2"/>
@@ -4148,7 +4447,7 @@
       <c r="Y75" s="34"/>
       <c r="Z75" s="34"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:26" ht="12.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="35" t="s">
         <v>141</v>
@@ -4159,13 +4458,13 @@
       <c r="D76" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="37" t="n">
+      <c r="E76" s="37">
         <v>2.85</v>
       </c>
       <c r="F76" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G76" s="39" t="n">
+      <c r="G76" s="39">
         <v>6</v>
       </c>
       <c r="H76" s="2"/>
@@ -4188,9 +4487,9 @@
       <c r="Y76" s="34"/>
       <c r="Z76" s="34"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:26" ht="12.75" customHeight="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="35" t="n">
+      <c r="B77" s="35">
         <v>11225238</v>
       </c>
       <c r="C77" s="36" t="s">
@@ -4199,13 +4498,13 @@
       <c r="D77" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E77" s="37" t="n">
+      <c r="E77" s="37">
         <v>2.16</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="39" t="n">
+      <c r="G77" s="39">
         <v>6</v>
       </c>
       <c r="H77" s="2"/>
@@ -4228,9 +4527,9 @@
       <c r="Y77" s="34"/>
       <c r="Z77" s="34"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:26" ht="12.75" customHeight="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="44" t="n">
+      <c r="B78" s="44">
         <v>50220033</v>
       </c>
       <c r="C78" s="45" t="s">
@@ -4239,13 +4538,13 @@
       <c r="D78" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="46" t="n">
+      <c r="E78" s="46">
         <v>1.8</v>
       </c>
       <c r="F78" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="41" t="n">
+      <c r="G78" s="41">
         <v>5</v>
       </c>
       <c r="H78" s="2"/>
@@ -4268,9 +4567,9 @@
       <c r="Y78" s="34"/>
       <c r="Z78" s="34"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:26" ht="12.75" customHeight="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="44" t="n">
+      <c r="B79" s="44">
         <v>50220045</v>
       </c>
       <c r="C79" s="45" t="s">
@@ -4279,13 +4578,13 @@
       <c r="D79" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="46" t="n">
+      <c r="E79" s="46">
         <v>1.8</v>
       </c>
       <c r="F79" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="41" t="n">
+      <c r="G79" s="41">
         <v>5</v>
       </c>
       <c r="H79" s="2"/>
@@ -4308,9 +4607,9 @@
       <c r="Y79" s="34"/>
       <c r="Z79" s="34"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:26" ht="12.75" customHeight="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="44" t="n">
+      <c r="B80" s="44">
         <v>50220076</v>
       </c>
       <c r="C80" s="45" t="s">
@@ -4319,13 +4618,13 @@
       <c r="D80" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="E80" s="46" t="n">
+      <c r="E80" s="46">
         <v>1.8</v>
       </c>
       <c r="F80" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="41" t="n">
+      <c r="G80" s="41">
         <v>5</v>
       </c>
       <c r="H80" s="2"/>
@@ -4348,9 +4647,9 @@
       <c r="Y80" s="34"/>
       <c r="Z80" s="34"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:26" ht="12.75" customHeight="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="44" t="n">
+      <c r="B81" s="44">
         <v>50220072</v>
       </c>
       <c r="C81" s="45" t="s">
@@ -4359,13 +4658,13 @@
       <c r="D81" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="E81" s="46" t="n">
+      <c r="E81" s="46">
         <v>1.06</v>
       </c>
       <c r="F81" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="41" t="n">
+      <c r="G81" s="41">
         <v>10</v>
       </c>
       <c r="H81" s="2"/>
@@ -4388,9 +4687,9 @@
       <c r="Y81" s="34"/>
       <c r="Z81" s="34"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:26" ht="12.75" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="44" t="n">
+      <c r="B82" s="44">
         <v>50220010</v>
       </c>
       <c r="C82" s="45" t="s">
@@ -4399,13 +4698,13 @@
       <c r="D82" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="46" t="n">
+      <c r="E82" s="46">
         <v>4.93</v>
       </c>
       <c r="F82" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="41" t="n">
+      <c r="G82" s="41">
         <v>10</v>
       </c>
       <c r="H82" s="2"/>
@@ -4428,9 +4727,9 @@
       <c r="Y82" s="34"/>
       <c r="Z82" s="34"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="44" t="n">
+      <c r="B83" s="44">
         <v>51220110</v>
       </c>
       <c r="C83" s="45" t="s">
@@ -4439,13 +4738,13 @@
       <c r="D83" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="48" t="n">
+      <c r="E83" s="48">
         <v>1.3</v>
       </c>
       <c r="F83" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="49" t="n">
+      <c r="G83" s="49">
         <v>1</v>
       </c>
       <c r="H83" s="2"/>
@@ -4468,9 +4767,9 @@
       <c r="Y83" s="34"/>
       <c r="Z83" s="34"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="44" t="n">
+      <c r="B84" s="44">
         <v>51220210</v>
       </c>
       <c r="C84" s="45" t="s">
@@ -4479,13 +4778,13 @@
       <c r="D84" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="48" t="n">
+      <c r="E84" s="48">
         <v>1.3</v>
       </c>
       <c r="F84" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="49" t="n">
+      <c r="G84" s="49">
         <v>1</v>
       </c>
       <c r="H84" s="2"/>
@@ -4508,9 +4807,9 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="34"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:26" ht="12.75" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="44" t="n">
+      <c r="B85" s="44">
         <v>51220111</v>
       </c>
       <c r="C85" s="45" t="s">
@@ -4519,13 +4818,13 @@
       <c r="D85" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E85" s="48" t="n">
+      <c r="E85" s="48">
         <v>1.83</v>
       </c>
       <c r="F85" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="49" t="n">
+      <c r="G85" s="49">
         <v>1</v>
       </c>
       <c r="H85" s="2"/>
@@ -4548,9 +4847,9 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="34"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:26" ht="12.75" customHeight="1">
       <c r="A86" s="2"/>
-      <c r="B86" s="44" t="n">
+      <c r="B86" s="44">
         <v>51220211</v>
       </c>
       <c r="C86" s="45" t="s">
@@ -4559,13 +4858,13 @@
       <c r="D86" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="E86" s="48" t="n">
+      <c r="E86" s="48">
         <v>1.83</v>
       </c>
       <c r="F86" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="49" t="n">
+      <c r="G86" s="49">
         <v>1</v>
       </c>
       <c r="H86" s="2"/>
@@ -4588,9 +4887,9 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="34"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:26" ht="12.75" customHeight="1">
       <c r="A87" s="2"/>
-      <c r="B87" s="44" t="n">
+      <c r="B87" s="44">
         <v>50220077</v>
       </c>
       <c r="C87" s="45" t="s">
@@ -4599,13 +4898,13 @@
       <c r="D87" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E87" s="48" t="n">
+      <c r="E87" s="48">
         <v>1.3</v>
       </c>
       <c r="F87" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="49" t="n">
+      <c r="G87" s="49">
         <v>10</v>
       </c>
       <c r="H87" s="2"/>
@@ -4628,9 +4927,9 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="34"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="2"/>
-      <c r="B88" s="44" t="n">
+      <c r="B88" s="44">
         <v>50220078</v>
       </c>
       <c r="C88" s="45" t="s">
@@ -4639,13 +4938,13 @@
       <c r="D88" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="48" t="n">
+      <c r="E88" s="48">
         <v>1.3</v>
       </c>
       <c r="F88" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="49" t="n">
+      <c r="G88" s="49">
         <v>10</v>
       </c>
       <c r="H88" s="2"/>
@@ -4668,9 +4967,9 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="34"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="44" t="n">
+      <c r="B89" s="44">
         <v>53220108</v>
       </c>
       <c r="C89" s="45" t="s">
@@ -4679,13 +4978,13 @@
       <c r="D89" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="E89" s="48" t="n">
+      <c r="E89" s="48">
         <v>0.21</v>
       </c>
       <c r="F89" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="49" t="n">
+      <c r="G89" s="49">
         <v>20</v>
       </c>
       <c r="H89" s="2"/>
@@ -4708,9 +5007,9 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="34"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:26" ht="12.75" customHeight="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="42" t="n">
+      <c r="B90" s="42">
         <v>53220109</v>
       </c>
       <c r="C90" s="36" t="s">
@@ -4719,13 +5018,13 @@
       <c r="D90" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="48" t="n">
+      <c r="E90" s="48">
         <v>0.21</v>
       </c>
       <c r="F90" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="49" t="n">
+      <c r="G90" s="49">
         <v>20</v>
       </c>
       <c r="H90" s="2"/>
@@ -4748,9 +5047,9 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="34"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:26" ht="12.75" customHeight="1">
       <c r="A91" s="2"/>
-      <c r="B91" s="42" t="n">
+      <c r="B91" s="42">
         <v>50220079</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -4759,13 +5058,13 @@
       <c r="D91" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="E91" s="48" t="n">
+      <c r="E91" s="48">
         <v>0.53</v>
       </c>
       <c r="F91" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="49" t="n">
+      <c r="G91" s="49">
         <v>10</v>
       </c>
       <c r="H91" s="2"/>
@@ -4788,9 +5087,9 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="34"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:26" ht="12.75" customHeight="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="35" t="n">
+      <c r="B92" s="35">
         <v>50220056</v>
       </c>
       <c r="C92" s="36" t="s">
@@ -4799,13 +5098,13 @@
       <c r="D92" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E92" s="37" t="n">
+      <c r="E92" s="37">
         <v>0.69</v>
       </c>
       <c r="F92" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="49" t="n">
+      <c r="G92" s="49">
         <v>10</v>
       </c>
       <c r="H92" s="2"/>
@@ -4828,9 +5127,9 @@
       <c r="Y92" s="34"/>
       <c r="Z92" s="34"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:26" ht="12.75" customHeight="1">
       <c r="A93" s="2"/>
-      <c r="B93" s="44" t="n">
+      <c r="B93" s="44">
         <v>11116211</v>
       </c>
       <c r="C93" s="36" t="s">
@@ -4839,13 +5138,13 @@
       <c r="D93" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="E93" s="37" t="n">
+      <c r="E93" s="37">
         <v>5.37</v>
       </c>
       <c r="F93" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G93" s="50" t="n">
+      <c r="G93" s="50">
         <v>6</v>
       </c>
       <c r="H93" s="2"/>
@@ -4868,9 +5167,9 @@
       <c r="Y93" s="34"/>
       <c r="Z93" s="34"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:26" ht="12.75" customHeight="1">
       <c r="A94" s="2"/>
-      <c r="B94" s="44" t="n">
+      <c r="B94" s="44">
         <v>11116212</v>
       </c>
       <c r="C94" s="36" t="s">
@@ -4879,13 +5178,13 @@
       <c r="D94" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E94" s="37" t="n">
+      <c r="E94" s="37">
         <v>7.88</v>
       </c>
       <c r="F94" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G94" s="50" t="n">
+      <c r="G94" s="50">
         <v>6</v>
       </c>
       <c r="H94" s="2"/>
@@ -4908,9 +5207,9 @@
       <c r="Y94" s="34"/>
       <c r="Z94" s="34"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:26" ht="12.75" customHeight="1">
       <c r="A95" s="2"/>
-      <c r="B95" s="44" t="n">
+      <c r="B95" s="44">
         <v>54200104</v>
       </c>
       <c r="C95" s="36" t="s">
@@ -4919,13 +5218,13 @@
       <c r="D95" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="E95" s="37" t="n">
+      <c r="E95" s="37">
         <v>1.41</v>
       </c>
       <c r="F95" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G95" s="50" t="n">
+      <c r="G95" s="50">
         <v>100</v>
       </c>
       <c r="H95" s="2"/>
@@ -4948,9 +5247,9 @@
       <c r="Y95" s="34"/>
       <c r="Z95" s="34"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:26" ht="15" customHeight="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="44" t="n">
+      <c r="B96" s="44">
         <v>50200068</v>
       </c>
       <c r="C96" s="51" t="s">
@@ -4959,13 +5258,13 @@
       <c r="D96" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="E96" s="37" t="n">
+      <c r="E96" s="37">
         <v>44.45</v>
       </c>
       <c r="F96" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="39" t="n">
+      <c r="G96" s="39">
         <v>20</v>
       </c>
       <c r="H96" s="2"/>
@@ -4988,9 +5287,9 @@
       <c r="Y96" s="34"/>
       <c r="Z96" s="34"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:26" ht="15" customHeight="1">
       <c r="A97" s="2"/>
-      <c r="B97" s="44" t="n">
+      <c r="B97" s="44">
         <v>50200069</v>
       </c>
       <c r="C97" s="51" t="s">
@@ -4999,13 +5298,13 @@
       <c r="D97" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="37" t="n">
+      <c r="E97" s="37">
         <v>44.45</v>
       </c>
       <c r="F97" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="39" t="n">
+      <c r="G97" s="39">
         <v>20</v>
       </c>
       <c r="H97" s="2"/>
@@ -5028,9 +5327,9 @@
       <c r="Y97" s="34"/>
       <c r="Z97" s="34"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:26" ht="15" customHeight="1">
       <c r="A98" s="2"/>
-      <c r="B98" s="44" t="n">
+      <c r="B98" s="44">
         <v>50200304</v>
       </c>
       <c r="C98" s="51" t="s">
@@ -5039,13 +5338,13 @@
       <c r="D98" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E98" s="37" t="n">
+      <c r="E98" s="37">
         <v>7.71</v>
       </c>
       <c r="F98" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="39" t="n">
+      <c r="G98" s="39">
         <v>50</v>
       </c>
       <c r="H98" s="2"/>
@@ -5068,9 +5367,9 @@
       <c r="Y98" s="34"/>
       <c r="Z98" s="34"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:26" ht="15" customHeight="1">
       <c r="A99" s="2"/>
-      <c r="B99" s="44" t="n">
+      <c r="B99" s="44">
         <v>50200305</v>
       </c>
       <c r="C99" s="51" t="s">
@@ -5079,13 +5378,13 @@
       <c r="D99" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="E99" s="37" t="n">
+      <c r="E99" s="37">
         <v>11.67</v>
       </c>
       <c r="F99" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="39" t="n">
+      <c r="G99" s="39">
         <v>50</v>
       </c>
       <c r="H99" s="2"/>
@@ -5108,9 +5407,9 @@
       <c r="Y99" s="34"/>
       <c r="Z99" s="34"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:26" ht="15" customHeight="1">
       <c r="A100" s="2"/>
-      <c r="B100" s="44" t="n">
+      <c r="B100" s="44">
         <v>50200306</v>
       </c>
       <c r="C100" s="51" t="s">
@@ -5119,13 +5418,13 @@
       <c r="D100" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E100" s="37" t="n">
+      <c r="E100" s="37">
         <v>9.67</v>
       </c>
       <c r="F100" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="39" t="n">
+      <c r="G100" s="39">
         <v>50</v>
       </c>
       <c r="H100" s="2"/>
@@ -5148,9 +5447,9 @@
       <c r="Y100" s="34"/>
       <c r="Z100" s="34"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:26" ht="15" customHeight="1">
       <c r="A101" s="2"/>
-      <c r="B101" s="44" t="n">
+      <c r="B101" s="44">
         <v>50200307</v>
       </c>
       <c r="C101" s="51" t="s">
@@ -5159,13 +5458,13 @@
       <c r="D101" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="E101" s="37" t="n">
+      <c r="E101" s="37">
         <v>0.75</v>
       </c>
       <c r="F101" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="39" t="n">
+      <c r="G101" s="39">
         <v>100</v>
       </c>
       <c r="H101" s="2"/>
@@ -5188,9 +5487,9 @@
       <c r="Y101" s="34"/>
       <c r="Z101" s="34"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:26" ht="15" customHeight="1">
       <c r="A102" s="2"/>
-      <c r="B102" s="44" t="n">
+      <c r="B102" s="44">
         <v>50200308</v>
       </c>
       <c r="C102" s="51" t="s">
@@ -5199,13 +5498,13 @@
       <c r="D102" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="E102" s="37" t="n">
+      <c r="E102" s="37">
         <v>0.75</v>
       </c>
       <c r="F102" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="39" t="n">
+      <c r="G102" s="39">
         <v>100</v>
       </c>
       <c r="H102" s="2"/>
@@ -5228,9 +5527,9 @@
       <c r="Y102" s="34"/>
       <c r="Z102" s="34"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:26" ht="15" customHeight="1">
       <c r="A103" s="2"/>
-      <c r="B103" s="44" t="n">
+      <c r="B103" s="44">
         <v>50200309</v>
       </c>
       <c r="C103" s="51" t="s">
@@ -5239,13 +5538,13 @@
       <c r="D103" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="E103" s="37" t="n">
+      <c r="E103" s="37">
         <v>6.52</v>
       </c>
       <c r="F103" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="39" t="n">
+      <c r="G103" s="39">
         <v>50</v>
       </c>
       <c r="H103" s="2"/>
@@ -5268,9 +5567,9 @@
       <c r="Y103" s="34"/>
       <c r="Z103" s="34"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:26" ht="15" customHeight="1">
       <c r="A104" s="2"/>
-      <c r="B104" s="44" t="n">
+      <c r="B104" s="44">
         <v>50200310</v>
       </c>
       <c r="C104" s="51" t="s">
@@ -5279,13 +5578,13 @@
       <c r="D104" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E104" s="37" t="n">
+      <c r="E104" s="37">
         <v>0.52</v>
       </c>
       <c r="F104" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="39" t="n">
+      <c r="G104" s="39">
         <v>100</v>
       </c>
       <c r="H104" s="2"/>
@@ -5308,9 +5607,9 @@
       <c r="Y104" s="34"/>
       <c r="Z104" s="34"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:26" ht="15" customHeight="1">
       <c r="A105" s="2"/>
-      <c r="B105" s="44" t="n">
+      <c r="B105" s="44">
         <v>51200070</v>
       </c>
       <c r="C105" s="51" t="s">
@@ -5319,13 +5618,13 @@
       <c r="D105" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="E105" s="37" t="n">
+      <c r="E105" s="37">
         <v>5.03</v>
       </c>
       <c r="F105" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="39" t="n">
+      <c r="G105" s="39">
         <v>32</v>
       </c>
       <c r="H105" s="2"/>
@@ -5348,9 +5647,9 @@
       <c r="Y105" s="34"/>
       <c r="Z105" s="34"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="2"/>
-      <c r="B106" s="44" t="n">
+      <c r="B106" s="44">
         <v>51200071</v>
       </c>
       <c r="C106" s="51" t="s">
@@ -5359,13 +5658,13 @@
       <c r="D106" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="E106" s="37" t="n">
+      <c r="E106" s="37">
         <v>5.03</v>
       </c>
       <c r="F106" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="39" t="n">
+      <c r="G106" s="39">
         <v>32</v>
       </c>
       <c r="H106" s="2"/>
@@ -5388,9 +5687,9 @@
       <c r="Y106" s="34"/>
       <c r="Z106" s="34"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:26" ht="15" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="B107" s="52" t="n">
+      <c r="B107" s="52">
         <v>50220112</v>
       </c>
       <c r="C107" s="53" t="s">
@@ -5399,13 +5698,13 @@
       <c r="D107" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="E107" s="37" t="n">
+      <c r="E107" s="37">
         <v>4.62</v>
       </c>
       <c r="F107" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="55" t="n">
+      <c r="G107" s="55">
         <v>50</v>
       </c>
       <c r="H107" s="2"/>
@@ -5428,9 +5727,9 @@
       <c r="Y107" s="34"/>
       <c r="Z107" s="34"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:26" ht="15" customHeight="1">
       <c r="A108" s="2"/>
-      <c r="B108" s="52" t="n">
+      <c r="B108" s="52">
         <v>60200110</v>
       </c>
       <c r="C108" s="53" t="s">
@@ -5439,13 +5738,13 @@
       <c r="D108" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="E108" s="37" t="n">
+      <c r="E108" s="37">
         <v>65.31</v>
       </c>
       <c r="F108" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="55" t="n">
+      <c r="G108" s="55">
         <v>0</v>
       </c>
       <c r="H108" s="2"/>
@@ -5468,9 +5767,9 @@
       <c r="Y108" s="34"/>
       <c r="Z108" s="34"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:26" ht="15" customHeight="1">
       <c r="A109" s="2"/>
-      <c r="B109" s="56" t="n">
+      <c r="B109" s="56">
         <v>60200105</v>
       </c>
       <c r="C109" s="57" t="s">
@@ -5479,13 +5778,13 @@
       <c r="D109" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="E109" s="58" t="n">
-        <v>75.18</v>
+      <c r="E109" s="58">
+        <v>75.180000000000007</v>
       </c>
       <c r="F109" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="60" t="n">
+      <c r="G109" s="60">
         <v>0</v>
       </c>
       <c r="H109" s="2"/>
@@ -5508,7 +5807,7 @@
       <c r="Y109" s="34"/>
       <c r="Z109" s="34"/>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:26" ht="12.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5538,10 +5837,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B12:B109"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
